--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatMinh.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -223,6 +223,30 @@
   </si>
   <si>
     <t>Nhật Minh</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thay khay sim, xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU</t>
   </si>
 </sst>
 </file>
@@ -625,6 +649,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,30 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,41 +1033,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1088,58 +1112,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1164,23 +1188,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1214,9 @@
       <c r="B6" s="59">
         <v>44852</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59">
+        <v>44853</v>
+      </c>
       <c r="D6" s="57" t="s">
         <v>56</v>
       </c>
@@ -1202,19 +1228,35 @@
         <v>62</v>
       </c>
       <c r="H6" s="60"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1229,31 +1271,49 @@
       <c r="B7" s="59">
         <v>44852</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="59">
+        <v>44853</v>
+      </c>
       <c r="D7" s="57" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="58">
-        <v>861881051089531</v>
+        <v>861881051086479</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="57" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1342,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1311,7 +1371,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1340,7 +1400,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1429,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1458,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1429,7 +1489,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1518,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1547,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1576,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1666,7 +1726,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1815,7 +1875,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -2167,7 +2227,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3293,41 +3353,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3372,58 +3432,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3448,23 +3508,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3490,7 +3550,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3521,7 +3581,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3550,7 +3610,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3579,7 +3639,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3668,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3637,7 +3697,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3666,7 +3726,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3697,7 +3757,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3726,7 +3786,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3755,7 +3815,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3784,7 +3844,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatMinh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>Xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220315</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -649,6 +664,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,32 +703,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,41 +1048,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1112,58 +1127,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1188,23 +1203,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,7 +1271,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1313,7 +1328,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1323,26 +1338,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="59">
+        <v>44859</v>
+      </c>
+      <c r="C8" s="59">
+        <v>44859</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="38">
+        <v>861881051082650</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>75</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1414,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1443,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +1472,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1458,7 +1501,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1489,7 +1532,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1561,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1547,7 +1590,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1619,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1769,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1939,7 +1982,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2227,7 +2270,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3292,6 +3335,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3303,13 +3353,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3353,41 +3396,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3432,58 +3475,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3508,23 +3551,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3550,7 +3593,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3581,7 +3624,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3610,7 +3653,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3639,7 +3682,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3668,7 +3711,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3697,7 +3740,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3726,7 +3769,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3757,7 +3800,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3786,7 +3829,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3815,7 +3858,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3844,7 +3887,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5075,13 +5118,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5093,6 +5129,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
